--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1777210.573416661</v>
+        <v>1772906.233606792</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>155.5625557110025</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>79.51149230610422</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>151.5171184679523</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>28.33708868093433</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>48.5608896239838</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>2.21468809059035</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>116.9725659584294</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>153.2371587159487</v>
+        <v>89.14525753719026</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>33.39527131750051</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>120.3534850500224</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>95.6122832085621</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>119.3420444276821</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059661782</v>
+        <v>20.2497997611523</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052099072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>119.6981910140107</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.40527395834942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>108.0275736005881</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176475</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671011865</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695564</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>131.2944603446576</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>251.0718348128885</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>119.2889395926984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>26.05480806223599</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>106.8299898147636</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344764</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344764</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V2" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="X2" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>840.4214638411528</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>478.4519222278689</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>883.4720418007416</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>655.3361958375551</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>420.1840876058124</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>165.9467308776107</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>165.9467308776107</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.9467308776107</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>659.6853352735295</v>
+        <v>652.4144760322549</v>
       </c>
       <c r="C4" t="n">
-        <v>659.6853352735295</v>
+        <v>483.478293104348</v>
       </c>
       <c r="D4" t="n">
-        <v>509.5686958611938</v>
+        <v>333.3616536920123</v>
       </c>
       <c r="E4" t="n">
-        <v>460.5172922006041</v>
+        <v>185.4485601096192</v>
       </c>
       <c r="F4" t="n">
-        <v>313.6273447026937</v>
+        <v>38.55861261170881</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>38.55861261170881</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>38.55861261170881</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.6853352735295</v>
+        <v>834.0629408624947</v>
       </c>
     </row>
     <row r="5">
@@ -4546,22 +4546,22 @@
         <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270.5156819514826</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>270.5156819514826</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4646,25 +4646,25 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4679,19 +4679,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W6" t="n">
-        <v>801.367527981072</v>
+        <v>318.9943252896839</v>
       </c>
       <c r="X6" t="n">
-        <v>593.5160277755392</v>
+        <v>111.1428250841511</v>
       </c>
       <c r="Y6" t="n">
-        <v>438.7310189715507</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.0607779425552</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="C7" t="n">
-        <v>331.1245950146483</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434482</v>
@@ -4755,22 +4755,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1021.12292271562</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.12292271562</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V7" t="n">
-        <v>766.4384345097332</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0607779425552</v>
+        <v>412.2241984147553</v>
       </c>
       <c r="X7" t="n">
-        <v>500.0607779425552</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.0607779425552</v>
+        <v>184.2346475167379</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.561985687969</v>
+        <v>601.7935428474425</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.599468747557</v>
+        <v>232.8310259070308</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3337701408066</v>
+        <v>136.2529620599983</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>136.2529620599983</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511989</v>
+        <v>129.3074613107949</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607432</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045915</v>
+        <v>795.1862829045945</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995229</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.591685209587</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940592</v>
+        <v>2053.905718940599</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550194</v>
+        <v>2359.356530550202</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661159</v>
+        <v>2540.564622661168</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762132</v>
+        <v>2435.830015762141</v>
       </c>
       <c r="T8" t="n">
-        <v>2315.28249613821</v>
+        <v>2435.830015762141</v>
       </c>
       <c r="U8" t="n">
-        <v>2061.70131766378</v>
+        <v>2435.830015762141</v>
       </c>
       <c r="V8" t="n">
-        <v>2061.70131766378</v>
+        <v>2104.76712841857</v>
       </c>
       <c r="W8" t="n">
-        <v>2061.70131766378</v>
+        <v>1751.998473148456</v>
       </c>
       <c r="X8" t="n">
-        <v>2061.70131766378</v>
+        <v>1378.532714887376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1671.561985687969</v>
+        <v>988.3933829115642</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010736</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199466</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586954</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532399</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801249</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763131</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530444933</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637185</v>
+        <v>113.4887579637191</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148174</v>
+        <v>559.9063389572714</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482983</v>
+        <v>854.4423223907531</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.361020933136</v>
+        <v>1217.508790865055</v>
       </c>
       <c r="N9" t="n">
-        <v>1613.445423405705</v>
+        <v>1604.593193337625</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459253</v>
+        <v>1936.480003325014</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888877</v>
+        <v>2421.055229888885</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442622</v>
+        <v>2536.27262844263</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251694</v>
+        <v>2424.826280251703</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685343</v>
+        <v>2230.816477685352</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751573</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351983</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791628</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586096</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821142</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.9633273055798</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="C10" t="n">
-        <v>471.9633273055798</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9633273055798</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9633273055798</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0733798076694</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685576</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380129</v>
+        <v>76.63468308380169</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676564</v>
+        <v>248.2500215676571</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368925</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904043</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412618</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634452</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108858</v>
+        <v>1514.861881826849</v>
       </c>
       <c r="U10" t="n">
-        <v>824.4161276034995</v>
+        <v>1225.74350832149</v>
       </c>
       <c r="V10" t="n">
-        <v>824.4161276034995</v>
+        <v>971.0590201156035</v>
       </c>
       <c r="W10" t="n">
-        <v>534.9989575665388</v>
+        <v>681.6418500786428</v>
       </c>
       <c r="X10" t="n">
-        <v>534.9989575665388</v>
+        <v>453.6522991806256</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.9633273055798</v>
+        <v>232.8597200370955</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5193,58 +5193,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400749</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812168</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703146</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.57599612053</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>920.6398131926233</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>770.5231737802875</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>622.6100801978944</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>475.720132699984</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>308.5240334148639</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2264.108249235165</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>2009.423761029278</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1720.006590992317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1492.0170400943</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1271.22446095077</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4370.179534698583</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4115.495046492696</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3826.077876455735</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3598.088325557718</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1380.253191019954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
         <v>2129.438138565707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2272.00829921169</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45.78351343583194</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444617</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.4068835459969</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>230.9976142082419</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>239.9392607416626</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>59.21924749803969</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664476</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>9.000252501566251</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.1126395763556</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>167.2340587438926</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.32043864788569</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>74.196296186881</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>904284.6845070723</v>
+        <v>904284.6845070724</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369782</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580778</v>
+        <v>390680.0076580801</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606945</v>
+        <v>507909.232060692</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101737</v>
+        <v>95270.23779101795</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447213</v>
+        <v>141668.8507447207</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567889</v>
+        <v>92902.86757567906</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-441054.6544002453</v>
+        <v>-441054.6544002457</v>
       </c>
       <c r="C6" t="n">
-        <v>239033.3261909474</v>
+        <v>239033.3261909475</v>
       </c>
       <c r="D6" t="n">
-        <v>-71048.53132008662</v>
+        <v>-71048.53132008866</v>
       </c>
       <c r="E6" t="n">
-        <v>-75984.78331065342</v>
+        <v>-76332.16256500799</v>
       </c>
       <c r="F6" t="n">
-        <v>431924.4487500415</v>
+        <v>431577.0694956838</v>
       </c>
       <c r="G6" t="n">
-        <v>431924.4487500409</v>
+        <v>431577.0694956838</v>
       </c>
       <c r="H6" t="n">
-        <v>431924.4487500411</v>
+        <v>431577.0694956842</v>
       </c>
       <c r="I6" t="n">
-        <v>431924.448750041</v>
+        <v>431577.0694956841</v>
       </c>
       <c r="J6" t="n">
-        <v>362925.294330927</v>
+        <v>362577.9150765698</v>
       </c>
       <c r="K6" t="n">
-        <v>431924.4487500409</v>
+        <v>431577.0694956842</v>
       </c>
       <c r="L6" t="n">
-        <v>336654.2109590237</v>
+        <v>336306.8317046658</v>
       </c>
       <c r="M6" t="n">
-        <v>299206.473054572</v>
+        <v>298859.0938002155</v>
       </c>
       <c r="N6" t="n">
-        <v>431924.4487500408</v>
+        <v>431577.0694956842</v>
       </c>
       <c r="O6" t="n">
-        <v>431924.4487500409</v>
+        <v>431577.0694956841</v>
       </c>
       <c r="P6" t="n">
-        <v>431924.4487500409</v>
+        <v>431577.0694956843</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562782</v>
+        <v>933.7024595627838</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856947</v>
+        <v>640.140690085697</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933036</v>
+        <v>319.6474457933055</v>
       </c>
       <c r="E3" t="n">
-        <v>434.273040778892</v>
+        <v>434.2730407788899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841886</v>
+        <v>376.4268100841908</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139539</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841886</v>
+        <v>376.4268100841908</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139539</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841886</v>
+        <v>376.4268100841908</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139539</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>227.1712859524781</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>171.6366755721783</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>43.32386911692447</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>177.4358965225431</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>97.87307302258537</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>119.9358854342182</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27593,7 +27593,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>289.903479783282</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,7 +27712,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>43.92180400150558</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>52.44553706135571</v>
+        <v>116.5374382401141</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27827,19 +27827,19 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>189.8190745620653</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>166.1695132865686</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>259.0707584121209</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>87.32251863700778</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164534611</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164525729</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>101.053297496328</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.1793793937454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546668</v>
+        <v>38.44132789546676</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763185</v>
+        <v>477.4691627763195</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354936</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359933</v>
+        <v>659.0954050359946</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752507</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307887</v>
+        <v>632.4356192307899</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983015</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864753</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140463</v>
+        <v>85.5346524514048</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508448</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026277</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571276</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617161</v>
+        <v>508.8678404617171</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152208</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519079</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947593</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366403</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133927</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415874</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023128</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462347</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046257</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307407</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658774</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942744</v>
+        <v>7.194100917942758</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650324</v>
+        <v>0.09183958618650342</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>238.3094620181793</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34868,7 +34868,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705674</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655063</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087206</v>
+        <v>428.7491718087219</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155916</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091019</v>
+        <v>402.3374078091032</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343032</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797639</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234269</v>
+        <v>20.20013907234315</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127568</v>
+        <v>62.90656844127605</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758575</v>
+        <v>450.9268494884367</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772534</v>
+        <v>297.5110943772543</v>
       </c>
       <c r="M9" t="n">
-        <v>640.1406900856947</v>
+        <v>366.7338065396988</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318876</v>
+        <v>390.9943459318886</v>
       </c>
       <c r="O9" t="n">
-        <v>566.2368162157054</v>
+        <v>335.2392020074644</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804283</v>
+        <v>489.4699258220916</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783562</v>
+        <v>24.53548676783586</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873304</v>
+        <v>25.68023017873327</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513692</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641534</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1772906.233606792</v>
+        <v>1774666.763909577</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.5625557110025</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>21.77034978617706</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>28.33708868093433</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>2.21468809059035</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.0856425863754</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
+        <v>263.7138800015061</v>
+      </c>
+      <c r="E5" t="n">
         <v>212.5689651179051</v>
-      </c>
-      <c r="E5" t="n">
-        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>89.14525753719026</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>120.3534850500224</v>
+        <v>203.6315899296954</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.6122832085621</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>223.2058932184953</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614511</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611523</v>
+        <v>20.24979976115256</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256307</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.6981910140107</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>195.7667673447278</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>108.0275736005881</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>129.7194509233171</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1663,10 +1663,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.2821160880066</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>182.1004663077425</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>125.5687591261415</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695564</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>12.74007641194018</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>47.84205650381972</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>105.3219429113275</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>55.52079624060024</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>106.8299898147636</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2875691835745</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2875691835745</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2875691835745</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>683.2875691835745</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>416.9099126163965</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>217.5403919905173</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>43.08736270939025</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278689</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>801.367527981072</v>
       </c>
       <c r="X3" t="n">
-        <v>1026.232198106091</v>
+        <v>593.5160277755392</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>385.7557290105853</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>652.4144760322549</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="C4" t="n">
-        <v>483.478293104348</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="D4" t="n">
-        <v>333.3616536920123</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="E4" t="n">
-        <v>185.4485601096192</v>
+        <v>490.4777916095494</v>
       </c>
       <c r="F4" t="n">
-        <v>38.55861261170881</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="G4" t="n">
-        <v>38.55861261170881</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>38.55861261170881</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>863.8599214339282</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006025</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="Y4" t="n">
-        <v>834.0629408624947</v>
+        <v>638.3908851919425</v>
       </c>
     </row>
     <row r="5">
@@ -4549,7 +4549,7 @@
         <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4567,13 +4567,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4646,22 +4646,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004799</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4679,19 +4679,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496282</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>573.2316820178855</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>318.9943252896839</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>111.1428250841511</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.2346475167379</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2346475167379</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388466</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V7" t="n">
-        <v>533.7933752329598</v>
+        <v>593.383997210649</v>
       </c>
       <c r="W7" t="n">
-        <v>412.2241984147553</v>
+        <v>387.695522534189</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2346475167379</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2346475167379</v>
+        <v>159.7059716361716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.7935428474425</v>
+        <v>832.1286765711423</v>
       </c>
       <c r="C8" t="n">
-        <v>232.8310259070308</v>
+        <v>832.1286765711423</v>
       </c>
       <c r="D8" t="n">
-        <v>136.2529620599983</v>
+        <v>473.8629779643917</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2529620599983</v>
+        <v>473.8629779643917</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107949</v>
+        <v>62.8770731747842</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467158</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607432</v>
+        <v>442.1757437607396</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045886</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.64796299522</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209576</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940586</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550187</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661151</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.56276034277</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762141</v>
+        <v>2560.56276034277</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762141</v>
+        <v>2560.56276034277</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762141</v>
+        <v>2560.56276034277</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.76712841857</v>
+        <v>2335.10226214227</v>
       </c>
       <c r="W8" t="n">
-        <v>1751.998473148456</v>
+        <v>1982.333606872156</v>
       </c>
       <c r="X8" t="n">
-        <v>1378.532714887376</v>
+        <v>1608.867848611076</v>
       </c>
       <c r="Y8" t="n">
-        <v>988.3933829115642</v>
+        <v>1218.728516635264</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,49 +4877,49 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.6655983999388</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>238.3188829507227</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572714</v>
+        <v>684.7364639442739</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907531</v>
+        <v>979.2724473777539</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865055</v>
+        <v>1342.338915852054</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337625</v>
+        <v>1729.423318324622</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325014</v>
+        <v>2061.31012831201</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888885</v>
+        <v>2308.345486741633</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.27262844263</v>
+        <v>2560.56276034277</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.56276034277</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251703</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685352</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.21125520685576</v>
+        <v>518.1771711294912</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685576</v>
+        <v>349.2409882015843</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685576</v>
+        <v>199.1243487892485</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380169</v>
+        <v>76.63468308380089</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676556</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368901</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904009</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101609</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931087</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616495</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.861881826849</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.74350832149</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0590201156035</v>
+        <v>1438.024936038239</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6418500786428</v>
+        <v>1148.607766001278</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6522991806256</v>
+        <v>920.618215103261</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8597200370955</v>
+        <v>699.8256359597309</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>615.8410452503712</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5357,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1793.521215553193</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1538.836727347306</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1249.419557310345</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1021.430006412328</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>800.6374272687975</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5752,22 +5752,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>365.9405071576781</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>365.9405071576781</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="29">
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6600,16 +6600,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327606</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048538</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>444.701316492518</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101249</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122145</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>149.8982754122145</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122145</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478292</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038306</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603198</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947395</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741509</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704548</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806531</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630004</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7314,16 +7314,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7736,13 +7736,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2272.00829921169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2052.406834234631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45.78351343583194</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>239.9392607416626</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.3837121690835</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348543</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>59.21924749803969</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>15.70159709961419</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>65.54986409393069</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>19.85228889678972</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>146.8157004125005</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>25.74504007796529</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>19.07741329096464</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>74.196296186881</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>904284.6845070724</v>
+        <v>904284.6845070723</v>
       </c>
     </row>
     <row r="5">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878661.5860369782</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="12">
@@ -26319,43 +26319,43 @@
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="H2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580801</v>
+        <v>390680.0076580758</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060692</v>
+        <v>507909.2320606962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101795</v>
+        <v>95270.23779101679</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447207</v>
+        <v>141668.8507447219</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.86757567871</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-441054.6544002457</v>
+        <v>-441054.6544002456</v>
       </c>
       <c r="C6" t="n">
         <v>239033.3261909475</v>
       </c>
       <c r="D6" t="n">
-        <v>-71048.53132008866</v>
+        <v>-71048.53132008496</v>
       </c>
       <c r="E6" t="n">
-        <v>-76332.16256500799</v>
+        <v>-76019.52123609107</v>
       </c>
       <c r="F6" t="n">
-        <v>431577.0694956838</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="G6" t="n">
-        <v>431577.0694956838</v>
+        <v>431889.7108246052</v>
       </c>
       <c r="H6" t="n">
-        <v>431577.0694956842</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="I6" t="n">
-        <v>431577.0694956841</v>
+        <v>431889.7108246052</v>
       </c>
       <c r="J6" t="n">
-        <v>362577.9150765698</v>
+        <v>362890.5564054913</v>
       </c>
       <c r="K6" t="n">
-        <v>431577.0694956842</v>
+        <v>431889.7108246054</v>
       </c>
       <c r="L6" t="n">
-        <v>336306.8317046658</v>
+        <v>336619.4730335887</v>
       </c>
       <c r="M6" t="n">
-        <v>298859.0938002155</v>
+        <v>299171.7351291355</v>
       </c>
       <c r="N6" t="n">
-        <v>431577.0694956842</v>
+        <v>431889.7108246054</v>
       </c>
       <c r="O6" t="n">
-        <v>431577.0694956841</v>
+        <v>431889.7108246052</v>
       </c>
       <c r="P6" t="n">
-        <v>431577.0694956843</v>
+        <v>431889.7108246052</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627838</v>
+        <v>933.7024595627803</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085697</v>
+        <v>640.1406900856925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933055</v>
+        <v>319.647445793302</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788899</v>
+        <v>434.2730407788935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841865</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139512</v>
+        <v>532.5675980139556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841862</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139512</v>
+        <v>532.5675980139558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841865</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139512</v>
+        <v>532.5675980139556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>227.1712859524781</v>
+        <v>170.1648765455755</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776178</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>125.6747157784617</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,13 +27517,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>177.4358965225431</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>119.9358854342182</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>15.63352165721838</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>142.1140765027779</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>116.5374382401141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>166.1695132865686</v>
+        <v>82.89140840689558</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>259.0707584121209</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465076</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>104.5463652516396</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164543237</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164525729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640956</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
-        <v>101.053297496328</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>56.37087597910019</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29456,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885546</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546661</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157551</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972524</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763195</v>
+        <v>477.4691627763177</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354936</v>
+        <v>592.3427171354913</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359946</v>
+        <v>659.0954050359921</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525057</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307899</v>
+        <v>632.4356192307876</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983005</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542118</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864744</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514048</v>
+        <v>85.53465245140447</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944149</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436924</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035135</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026277</v>
+        <v>69.14683309026252</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.744195107942</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502159</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571268</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617171</v>
+        <v>508.8678404617152</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152199</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.835446451907</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947593</v>
+        <v>383.5050724947579</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463694</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204785</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366403</v>
+        <v>37.30405581366389</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133913</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419029</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752554</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.9698525484</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415865</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954056</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772513</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490116</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023117</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462343</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046248</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708725</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939798</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307392</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658769</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942758</v>
+        <v>7.19410091794273</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650342</v>
+        <v>0.09183958618650308</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>238.3094620181793</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34868,7 +34868,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705661</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313371</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655063</v>
+        <v>356.576302165504</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087219</v>
+        <v>428.7491718087194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559148</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091032</v>
+        <v>402.3374078091008</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.536173343031</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797623</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234315</v>
+        <v>20.20013907234227</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127605</v>
+        <v>188.9976037816841</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884367</v>
+        <v>450.9268494884355</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772543</v>
+        <v>297.5110943772526</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396988</v>
+        <v>366.7338065396969</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>390.9943459318866</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074644</v>
+        <v>335.2392020074626</v>
       </c>
       <c r="P9" t="n">
-        <v>489.4699258220916</v>
+        <v>249.5306650804276</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>254.7649228294314</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783586</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873327</v>
+        <v>25.68023017873281</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.3488267513684</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093278</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641523</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254629</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186645</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.917535035766</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294864</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294959</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
